--- a/data/trans_orig/DCD-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{241A65A0-2556-4AC6-AF25-816EB2268ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA3AD75-ABBE-4833-AE45-46AA32C73748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31BCC5B1-7162-4B68-B753-5AE72AACDBE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD14D3E6-E30B-4787-80B6-5161019A059A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -260,1345 +260,1345 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
     <t>73,9%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>78,06%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>81,09%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>68,89%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9915E-9AC8-4CA8-A6F6-5F82BF28C63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3320D0D-76E9-4910-A693-7EF2DCAF6981}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3452,7 +3452,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3503,7 +3503,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3541,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764A785D-2E40-4951-96E2-A0D676CD7842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D604B4-E5DB-475D-9E5E-AF92255D91FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4768,7 +4768,7 @@
         <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>736746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>659</v>
@@ -4798,13 +4798,13 @@
         <v>716645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -4813,13 +4813,13 @@
         <v>1453391</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4887,13 @@
         <v>228270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>536</v>
@@ -4902,13 +4902,13 @@
         <v>580234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>748</v>
@@ -4917,13 +4917,13 @@
         <v>808504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4938,13 @@
         <v>3198509</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>2762</v>
@@ -4953,13 +4953,13 @@
         <v>2978075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>5759</v>
@@ -4968,13 +4968,13 @@
         <v>6176584</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691EC75D-E712-4FF8-99EC-F32E1F2EEE7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921919F6-7CBB-44F1-B487-C871D82C39E4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5071,7 +5071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5181,10 +5181,10 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -5193,13 +5193,13 @@
         <v>62030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -5208,13 +5208,13 @@
         <v>79233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,10 +5232,10 @@
         <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5244,13 +5244,13 @@
         <v>226673</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>471</v>
@@ -5259,13 +5259,13 @@
         <v>503231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5333,13 @@
         <v>21104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5348,13 +5348,13 @@
         <v>38404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5363,13 +5363,13 @@
         <v>59509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5384,13 @@
         <v>481471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5399,13 +5399,13 @@
         <v>484680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -5414,13 +5414,13 @@
         <v>966150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5488,13 @@
         <v>16448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -5503,13 +5503,13 @@
         <v>42408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5518,13 +5518,13 @@
         <v>58856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5539,13 @@
         <v>302117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -5554,13 +5554,13 @@
         <v>293901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -5569,13 +5569,13 @@
         <v>596018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5643,13 @@
         <v>33106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5658,13 +5658,13 @@
         <v>68610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5673,13 +5673,13 @@
         <v>101716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5694,13 @@
         <v>336858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -5709,13 +5709,13 @@
         <v>318673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -5724,13 +5724,13 @@
         <v>655531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5798,13 @@
         <v>17437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5813,13 +5813,13 @@
         <v>36519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5828,13 +5828,13 @@
         <v>53956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5849,13 @@
         <v>193784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -5864,13 +5864,13 @@
         <v>182068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>382</v>
@@ -5879,13 +5879,13 @@
         <v>375852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5953,13 @@
         <v>18839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5968,13 +5968,13 @@
         <v>36759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5983,13 +5983,13 @@
         <v>55598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6004,13 @@
         <v>244284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6019,13 +6019,13 @@
         <v>236356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6034,13 +6034,13 @@
         <v>480640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6108,13 @@
         <v>52261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>164</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -6123,13 +6123,13 @@
         <v>85171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6138,13 +6138,13 @@
         <v>137432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6159,13 @@
         <v>604297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -6174,13 +6174,13 @@
         <v>606123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -6189,13 +6189,13 @@
         <v>1210420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6263,13 @@
         <v>51628</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -6278,13 +6278,13 @@
         <v>92603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6293,13 +6293,13 @@
         <v>144231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6314,13 @@
         <v>726955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>676</v>
@@ -6329,13 +6329,13 @@
         <v>733564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>1376</v>
@@ -6344,13 +6344,13 @@
         <v>1460519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6418,13 @@
         <v>228026</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>416</v>
@@ -6433,13 +6433,13 @@
         <v>462504</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>633</v>
@@ -6448,13 +6448,13 @@
         <v>690530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6469,13 @@
         <v>3166324</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>2922</v>
@@ -6484,13 +6484,13 @@
         <v>3082038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>5936</v>
@@ -6499,13 +6499,13 @@
         <v>6248362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF08D1-3362-4ABD-B236-CC5C59ECA660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE0CCA6-644C-4BE2-AFA8-808E8BDE226A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6602,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6709,13 +6709,13 @@
         <v>25711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -6724,13 +6724,13 @@
         <v>46590</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -6739,13 +6739,13 @@
         <v>72301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6760,13 @@
         <v>234587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>437</v>
@@ -6775,13 +6775,13 @@
         <v>224813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>732</v>
@@ -6790,13 +6790,13 @@
         <v>459399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6864,13 @@
         <v>62000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -6879,13 +6879,13 @@
         <v>151064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>257</v>
@@ -6894,13 +6894,13 @@
         <v>213064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6915,13 @@
         <v>457297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>511</v>
@@ -6930,13 +6930,13 @@
         <v>403502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -6945,13 +6945,13 @@
         <v>860800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7019,13 @@
         <v>49808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7034,13 +7034,13 @@
         <v>97444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7049,13 +7049,13 @@
         <v>147252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7070,13 @@
         <v>272432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
@@ -7085,13 +7085,13 @@
         <v>275840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7100,13 +7100,13 @@
         <v>548272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7174,13 @@
         <v>48274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7189,13 +7189,13 @@
         <v>110144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7204,13 +7204,13 @@
         <v>158417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7225,13 @@
         <v>273966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>413</v>
@@ -7240,13 +7240,13 @@
         <v>318412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7255,13 +7255,13 @@
         <v>592379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,10 +7332,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7344,13 +7344,13 @@
         <v>46862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7359,13 +7359,13 @@
         <v>66982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,10 +7383,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7395,13 +7395,13 @@
         <v>212651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7410,13 +7410,13 @@
         <v>389278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7484,13 @@
         <v>52421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -7499,13 +7499,13 @@
         <v>90959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -7514,13 +7514,13 @@
         <v>143380</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7535,13 @@
         <v>224802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -7550,13 +7550,13 @@
         <v>184663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>571</v>
@@ -7565,13 +7565,13 @@
         <v>409465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7639,13 @@
         <v>104763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>356</v>
@@ -7654,13 +7654,13 @@
         <v>250184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>465</v>
@@ -7669,13 +7669,13 @@
         <v>354947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7690,13 @@
         <v>522991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -7705,13 +7705,13 @@
         <v>554019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1094</v>
@@ -7720,13 +7720,13 @@
         <v>1077010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,13 +7794,13 @@
         <v>84772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7809,13 +7809,13 @@
         <v>193155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -7824,13 +7824,13 @@
         <v>277927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,13 +7845,13 @@
         <v>774656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>797</v>
@@ -7860,13 +7860,13 @@
         <v>675279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -7875,13 +7875,13 @@
         <v>1449935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7949,13 @@
         <v>447869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>502</v>
+        <v>313</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>1548</v>
@@ -7964,13 +7964,13 @@
         <v>986402</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>2072</v>
@@ -7979,13 +7979,13 @@
         <v>1434271</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8000,13 @@
         <v>2937359</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>511</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>3819</v>
@@ -8027,7 +8027,7 @@
         <v>6671</v>
       </c>
       <c r="N29" s="7">
-        <v>5786538</v>
+        <v>5786537</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>517</v>
@@ -8078,7 +8078,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/DCD-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA3AD75-ABBE-4833-AE45-46AA32C73748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998F3A9D-9469-46D3-B7FD-9113F2F8D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD14D3E6-E30B-4787-80B6-5161019A059A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E10042E6-4A79-4F66-B3E7-BF62FC52784C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="522">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,1327 +260,1333 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>6,9%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>93,1%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
   </si>
   <si>
     <t>74,28%</t>
@@ -2010,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3320D0D-76E9-4910-A693-7EF2DCAF6981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8B4BD-1DE2-4C9C-8A13-F45AD0207D1F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3422,7 +3428,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3473,7 +3479,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3541,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D604B4-E5DB-475D-9E5E-AF92255D91FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A7C15-6FCE-4161-ACB6-5489D9DB7739}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +3999,7 @@
         <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>305964</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4023,13 +4029,13 @@
         <v>298072</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>581</v>
@@ -4038,13 +4044,13 @@
         <v>604036</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4118,13 @@
         <v>39201</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -4127,13 +4133,13 @@
         <v>127829</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -4142,13 +4148,13 @@
         <v>167030</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>629519</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -4178,13 +4184,13 @@
         <v>548367</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1098</v>
@@ -4193,13 +4199,13 @@
         <v>1177886</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4273,13 @@
         <v>28997</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -4282,13 +4288,13 @@
         <v>72612</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4297,13 +4303,13 @@
         <v>101610</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4324,13 @@
         <v>183621</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4333,13 +4339,13 @@
         <v>146979</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4348,13 +4354,13 @@
         <v>330599</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4428,13 @@
         <v>30139</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -4437,13 +4443,13 @@
         <v>45813</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4452,13 +4458,13 @@
         <v>75952</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4479,13 @@
         <v>243842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -4488,13 +4494,13 @@
         <v>234218</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -4503,13 +4509,13 @@
         <v>478060</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4583,13 @@
         <v>40387</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -4592,13 +4598,13 @@
         <v>107590</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -4607,13 +4613,13 @@
         <v>147977</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4634,13 @@
         <v>622401</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
@@ -4643,13 +4649,13 @@
         <v>586263</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>1118</v>
@@ -4658,13 +4664,13 @@
         <v>1208664</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4738,13 @@
         <v>42352</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -4747,13 +4753,13 @@
         <v>107208</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -4762,13 +4768,13 @@
         <v>149560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4789,13 @@
         <v>736746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>659</v>
@@ -4798,13 +4804,13 @@
         <v>716645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -4813,13 +4819,13 @@
         <v>1453391</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4893,13 @@
         <v>228270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>536</v>
@@ -4902,13 +4908,13 @@
         <v>580234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>748</v>
@@ -4917,13 +4923,13 @@
         <v>808504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4944,13 @@
         <v>3198509</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>2762</v>
@@ -4953,13 +4959,13 @@
         <v>2978075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>5759</v>
@@ -4968,13 +4974,13 @@
         <v>6176584</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921919F6-7CBB-44F1-B487-C871D82C39E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E0DA74-B813-45DF-8334-89B00792AD8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5071,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5178,13 +5184,13 @@
         <v>17203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -5193,13 +5199,13 @@
         <v>62030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -5208,13 +5214,13 @@
         <v>79233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5235,13 @@
         <v>276558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5244,13 +5250,13 @@
         <v>226673</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>471</v>
@@ -5259,13 +5265,13 @@
         <v>503231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5339,13 @@
         <v>21104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5348,13 +5354,13 @@
         <v>38404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5363,13 +5369,13 @@
         <v>59509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5390,13 @@
         <v>481471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5399,13 +5405,13 @@
         <v>484680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -5414,13 +5420,13 @@
         <v>966150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5494,13 @@
         <v>16448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -5503,13 +5509,13 @@
         <v>42408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5518,13 +5524,13 @@
         <v>58856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5545,13 @@
         <v>302117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -5554,13 +5560,13 @@
         <v>293901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -5569,13 +5575,13 @@
         <v>596018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5649,13 @@
         <v>33106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5658,13 +5664,13 @@
         <v>68610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5673,13 +5679,13 @@
         <v>101716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5700,13 @@
         <v>336858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -5709,13 +5715,13 @@
         <v>318673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -5724,13 +5730,13 @@
         <v>655531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5804,13 @@
         <v>17437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5813,13 +5819,13 @@
         <v>36519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5828,13 +5834,13 @@
         <v>53956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5855,13 @@
         <v>193784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -5864,13 +5870,13 @@
         <v>182068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>382</v>
@@ -5879,13 +5885,13 @@
         <v>375852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5959,13 @@
         <v>18839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5968,13 +5974,13 @@
         <v>36759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5983,13 +5989,13 @@
         <v>55598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6010,13 @@
         <v>244284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6019,13 +6025,13 @@
         <v>236356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6034,13 +6040,13 @@
         <v>480640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6114,13 @@
         <v>52261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -6123,13 +6129,13 @@
         <v>85171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6138,13 +6144,13 @@
         <v>137432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6165,13 @@
         <v>604297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -6174,13 +6180,13 @@
         <v>606123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -6189,13 +6195,13 @@
         <v>1210420</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6269,13 @@
         <v>51628</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -6278,13 +6284,13 @@
         <v>92603</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6293,13 +6299,13 @@
         <v>144231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6320,13 @@
         <v>726955</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>676</v>
@@ -6329,13 +6335,13 @@
         <v>733564</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>1376</v>
@@ -6344,13 +6350,13 @@
         <v>1460519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6424,13 @@
         <v>228026</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>416</v>
@@ -6433,13 +6439,13 @@
         <v>462504</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>633</v>
@@ -6448,13 +6454,13 @@
         <v>690530</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6475,13 @@
         <v>3166324</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>2922</v>
@@ -6585,7 +6591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE0CCA6-644C-4BE2-AFA8-808E8BDE226A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4EBCF4-2052-4F89-95FE-068F26D1F723}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6739,7 +6745,7 @@
         <v>72301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>376</v>
@@ -6790,7 +6796,7 @@
         <v>459399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>384</v>
@@ -7022,10 +7028,10 @@
         <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7034,13 +7040,13 @@
         <v>97444</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7049,13 +7055,13 @@
         <v>147252</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7076,13 @@
         <v>272432</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
@@ -7085,13 +7091,13 @@
         <v>275840</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7100,13 +7106,13 @@
         <v>548272</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7180,13 @@
         <v>48274</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7189,13 +7195,13 @@
         <v>110144</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7204,13 +7210,13 @@
         <v>158417</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7231,13 @@
         <v>273966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>413</v>
@@ -7240,13 +7246,13 @@
         <v>318412</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7255,13 +7261,13 @@
         <v>592379</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,10 +7338,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7344,13 +7350,13 @@
         <v>46862</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7359,13 +7365,13 @@
         <v>66982</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,10 +7389,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7395,13 +7401,13 @@
         <v>212651</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7410,13 +7416,13 @@
         <v>389278</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7490,13 @@
         <v>52421</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -7499,13 +7505,13 @@
         <v>90959</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -7514,13 +7520,13 @@
         <v>143380</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7541,13 @@
         <v>224802</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -7550,13 +7556,13 @@
         <v>184663</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>571</v>
@@ -7565,13 +7571,13 @@
         <v>409465</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7645,13 @@
         <v>104763</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>356</v>
@@ -7654,13 +7660,13 @@
         <v>250184</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>465</v>
@@ -7669,13 +7675,13 @@
         <v>354947</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7696,13 @@
         <v>522991</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -7705,13 +7711,13 @@
         <v>554019</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1094</v>
@@ -7720,13 +7726,13 @@
         <v>1077010</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,13 +7800,13 @@
         <v>84772</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7809,13 +7815,13 @@
         <v>193155</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -7824,13 +7830,13 @@
         <v>277927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,13 +7851,13 @@
         <v>774656</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>797</v>
@@ -7860,13 +7866,13 @@
         <v>675279</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -7875,10 +7881,10 @@
         <v>1449935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>383</v>
@@ -7949,10 +7955,10 @@
         <v>447869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>506</v>
@@ -8000,13 +8006,13 @@
         <v>2937359</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>513</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>3819</v>
@@ -8015,13 +8021,13 @@
         <v>2849179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>6671</v>
@@ -8030,13 +8036,13 @@
         <v>5786537</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/DCD-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998F3A9D-9469-46D3-B7FD-9113F2F8D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C0746F-1C6E-43B4-9EC5-A5AEA4FDE8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E10042E6-4A79-4F66-B3E7-BF62FC52784C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7356F7F9-B9D5-40FC-AE3A-C6012F5C0F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="520">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,1351 +260,1345 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>6,9%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>93,1%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>90,85%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
+    <t>11,87%</t>
+  </si>
+  <si>
     <t>19,53%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>25,21%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>74,79%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>82,16%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8B4BD-1DE2-4C9C-8A13-F45AD0207D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF07D64-600C-4228-A764-C7792443ADF3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3428,7 +3422,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3458,7 +3452,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3479,7 +3473,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3509,7 +3503,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3547,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A7C15-6FCE-4161-ACB6-5489D9DB7739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913C9045-2C4A-4019-9D48-65612B713023}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,7 +3993,7 @@
         <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4008,13 @@
         <v>305964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4029,13 +4023,13 @@
         <v>298072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>581</v>
@@ -4044,13 +4038,13 @@
         <v>604036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>39201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -4133,13 +4127,13 @@
         <v>127829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -4148,13 +4142,13 @@
         <v>167030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4163,13 @@
         <v>629519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -4184,13 +4178,13 @@
         <v>548367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1098</v>
@@ -4199,13 +4193,13 @@
         <v>1177886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4267,13 @@
         <v>28997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -4288,13 +4282,13 @@
         <v>72612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4303,13 +4297,13 @@
         <v>101610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>183621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4339,13 +4333,13 @@
         <v>146979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4354,13 +4348,13 @@
         <v>330599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4422,13 @@
         <v>30139</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -4443,13 +4437,13 @@
         <v>45813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4458,13 +4452,13 @@
         <v>75952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>243842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -4494,13 +4488,13 @@
         <v>234218</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -4509,13 +4503,13 @@
         <v>478060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4577,13 @@
         <v>40387</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -4598,13 +4592,13 @@
         <v>107590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -4613,13 +4607,13 @@
         <v>147977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4628,13 @@
         <v>622401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
@@ -4649,13 +4643,13 @@
         <v>586263</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>1118</v>
@@ -4664,13 +4658,13 @@
         <v>1208664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4732,13 @@
         <v>42352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -4753,13 +4747,13 @@
         <v>107208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -4768,13 +4762,13 @@
         <v>149560</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4783,13 @@
         <v>736746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>659</v>
@@ -4804,13 +4798,13 @@
         <v>716645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -4819,13 +4813,13 @@
         <v>1453391</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4887,13 @@
         <v>228270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>536</v>
@@ -4908,13 +4902,13 @@
         <v>580234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>748</v>
@@ -4923,13 +4917,13 @@
         <v>808504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4938,13 @@
         <v>3198509</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>2762</v>
@@ -4959,13 +4953,13 @@
         <v>2978075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>5759</v>
@@ -4974,13 +4968,13 @@
         <v>6176584</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E0DA74-B813-45DF-8334-89B00792AD8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B311FF-2627-429E-B5F6-8B55AE9C0D36}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5077,7 +5071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5184,13 +5178,13 @@
         <v>17203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -5199,13 +5193,13 @@
         <v>62030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -5214,13 +5208,13 @@
         <v>79233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5229,13 @@
         <v>276558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5250,13 +5244,13 @@
         <v>226673</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>471</v>
@@ -5265,13 +5259,13 @@
         <v>503231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5333,13 @@
         <v>21104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5354,13 +5348,13 @@
         <v>38404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5369,13 +5363,13 @@
         <v>59509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5384,13 @@
         <v>481471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5405,13 +5399,13 @@
         <v>484680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -5420,10 +5414,10 @@
         <v>966150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>246</v>
@@ -5512,10 +5506,10 @@
         <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5524,13 +5518,13 @@
         <v>58856</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>302117</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -5560,13 +5554,13 @@
         <v>293901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -5575,13 +5569,13 @@
         <v>596018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5643,13 @@
         <v>33106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5664,13 +5658,13 @@
         <v>68610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5679,13 +5673,13 @@
         <v>101716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>336858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -5715,13 +5709,13 @@
         <v>318673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -5730,13 +5724,13 @@
         <v>655531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5798,13 @@
         <v>17437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5819,13 +5813,13 @@
         <v>36519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5834,13 +5828,13 @@
         <v>53956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5849,13 @@
         <v>193784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -5870,13 +5864,13 @@
         <v>182068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>382</v>
@@ -5885,13 +5879,13 @@
         <v>375852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5953,13 @@
         <v>18839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5974,13 +5968,13 @@
         <v>36759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5989,13 +5983,13 @@
         <v>55598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6004,13 @@
         <v>244284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6025,13 +6019,13 @@
         <v>236356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6040,13 +6034,13 @@
         <v>480640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6108,13 @@
         <v>52261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -6129,13 +6123,13 @@
         <v>85171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6144,13 +6138,13 @@
         <v>137432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>604297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -6180,13 +6174,13 @@
         <v>606123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -6195,13 +6189,13 @@
         <v>1210420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6263,13 @@
         <v>51628</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -6284,13 +6278,13 @@
         <v>92603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6299,13 +6293,13 @@
         <v>144231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6314,13 @@
         <v>726955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>676</v>
@@ -6335,13 +6329,13 @@
         <v>733564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>1376</v>
@@ -6350,13 +6344,13 @@
         <v>1460519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6418,13 @@
         <v>228026</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H28" s="7">
         <v>416</v>
@@ -6439,13 +6433,13 @@
         <v>462504</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M28" s="7">
         <v>633</v>
@@ -6454,13 +6448,13 @@
         <v>690530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6469,13 @@
         <v>3166324</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H29" s="7">
         <v>2922</v>
@@ -6490,13 +6484,13 @@
         <v>3082038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M29" s="7">
         <v>5936</v>
@@ -6505,13 +6499,13 @@
         <v>6248362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4EBCF4-2052-4F89-95FE-068F26D1F723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4548073-8536-41F6-9897-33315C2C8704}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6608,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6715,13 +6709,13 @@
         <v>25711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -6730,13 +6724,13 @@
         <v>46590</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -6745,13 +6739,13 @@
         <v>72301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6760,13 @@
         <v>234587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>437</v>
@@ -6781,13 +6775,13 @@
         <v>224813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>732</v>
@@ -6796,13 +6790,13 @@
         <v>459399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,13 +6864,13 @@
         <v>62000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -6885,13 +6879,13 @@
         <v>151064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>257</v>
@@ -6900,13 +6894,13 @@
         <v>213064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6915,13 @@
         <v>457297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>511</v>
@@ -6936,13 +6930,13 @@
         <v>403502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -6951,13 +6945,13 @@
         <v>860800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7019,13 @@
         <v>49808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7040,13 +7034,13 @@
         <v>97444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7055,13 +7049,13 @@
         <v>147252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7070,13 @@
         <v>272432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
@@ -7091,13 +7085,13 @@
         <v>275840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7106,13 +7100,13 @@
         <v>548272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7174,13 @@
         <v>48274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7195,13 +7189,13 @@
         <v>110144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7210,13 +7204,13 @@
         <v>158417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7225,13 @@
         <v>273966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H14" s="7">
         <v>413</v>
@@ -7246,13 +7240,13 @@
         <v>318412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7261,13 +7255,13 @@
         <v>592379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,10 +7332,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7350,13 +7344,13 @@
         <v>46862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7365,13 +7359,13 @@
         <v>66982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,10 +7383,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7401,13 +7395,13 @@
         <v>212651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7416,13 +7410,13 @@
         <v>389278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7484,13 @@
         <v>52421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -7505,13 +7499,13 @@
         <v>90959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -7520,13 +7514,13 @@
         <v>143380</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7535,13 @@
         <v>224802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -7556,13 +7550,13 @@
         <v>184663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>571</v>
@@ -7571,13 +7565,13 @@
         <v>409465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7639,13 @@
         <v>104763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>356</v>
@@ -7660,13 +7654,13 @@
         <v>250184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>465</v>
@@ -7675,13 +7669,13 @@
         <v>354947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7690,13 @@
         <v>522991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -7711,13 +7705,13 @@
         <v>554019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>1094</v>
@@ -7726,13 +7720,13 @@
         <v>1077010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7794,13 @@
         <v>84772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7815,13 +7809,13 @@
         <v>193155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -7830,13 +7824,13 @@
         <v>277927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>491</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7845,13 @@
         <v>774656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>797</v>
@@ -7866,13 +7860,13 @@
         <v>675279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -7881,13 +7875,13 @@
         <v>1449935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7949,13 @@
         <v>447869</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>1548</v>
@@ -7970,13 +7964,13 @@
         <v>986402</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>2072</v>
@@ -7985,13 +7979,13 @@
         <v>1434271</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8000,13 @@
         <v>2937359</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>3819</v>
@@ -8021,28 +8015,28 @@
         <v>2849179</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>6671</v>
       </c>
       <c r="N29" s="7">
-        <v>5786537</v>
+        <v>5786538</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,7 +8078,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
